--- a/Template/Example/Контактные лица.xlsx
+++ b/Template/Example/Контактные лица.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -108,19 +108,13 @@
     <x:t>Главный специалист</x:t>
   </x:si>
   <x:si>
-    <x:t>Загружен частично</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02.09.2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Организация" с именем "Авалон ООО". Проверьте, что выбрана верная запись.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Организация" с именем "Политекс ООО". Проверьте, что выбрана верная запись.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Организация" с именем "Точка Росы ООО". Проверьте, что выбрана верная запись.</x:t>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08.02.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
 </x:sst>
 </file>
@@ -533,7 +527,7 @@
   <x:dimension ref="A1:M7"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D10" sqref="D10"/>
+      <x:selection activeCell="K2" sqref="K2:M4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +647,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -684,7 +678,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
